--- a/excel/templates/delivery.xlsx
+++ b/excel/templates/delivery.xlsx
@@ -12,18 +12,18 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
-    <sheet name="請求書" sheetId="18" r:id="rId1"/>
+    <sheet name="納品書" sheetId="18" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="client_billing_no">請求書!$O$2</definedName>
-    <definedName name="client_company_name">請求書!$C$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">請求書!$A$1:$Q$63</definedName>
-    <definedName name="printed_date">請求書!$H$5</definedName>
-    <definedName name="project_name">請求書!$E$11</definedName>
-    <definedName name="project_name_title">請求書!$C$11</definedName>
-    <definedName name="title">請求書!$H$2</definedName>
-    <definedName name="total_money">請求書!$K$14</definedName>
-    <definedName name="total_money_title">請求書!$I$14</definedName>
+    <definedName name="client_billing_no">納品書!$O$2</definedName>
+    <definedName name="client_company_name">納品書!$C$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">納品書!$A$1:$Q$63</definedName>
+    <definedName name="printed_date">納品書!$H$5</definedName>
+    <definedName name="project_name">納品書!$E$11</definedName>
+    <definedName name="project_name_title">納品書!$C$11</definedName>
+    <definedName name="title">納品書!$H$2</definedName>
+    <definedName name="total_money">納品書!$K$14</definedName>
+    <definedName name="total_money_title">納品書!$I$14</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -427,6 +427,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -451,9 +454,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1080,9 +1080,9 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
@@ -1203,27 +1203,27 @@
     <row r="11" spans="1:20" ht="36" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="46" t="s">
+      <c r="D11" s="49"/>
+      <c r="E11" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="45" t="s">
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
@@ -1231,14 +1231,14 @@
     <row r="12" spans="1:20" ht="10.65" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
@@ -1255,19 +1255,19 @@
     <row r="13" spans="1:20" ht="17.399999999999999" customHeight="1">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="6"/>
@@ -1277,19 +1277,19 @@
     <row r="14" spans="1:20" ht="17.399999999999999">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="6"/>
@@ -1310,8 +1310,8 @@
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
       <c r="P15" s="16"/>
       <c r="Q15" s="13"/>
       <c r="R15" s="6"/>
